--- a/testdata/outputdata.xlsx
+++ b/testdata/outputdata.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="73">
   <si>
     <t>Name</t>
   </si>
@@ -644,22 +644,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3">
@@ -684,59 +684,59 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s" s="0">
-        <v>70</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s" s="0">
         <v>39</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="E6" t="s" s="0">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s" s="0">
         <v>70</v>
